--- a/PolicyEffectiveness/0-DayLag_MassachusettsPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_MassachusettsPolicy.xlsx
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2647,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2815,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3375,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3431,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3655,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3823,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4327,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4383,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4439,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4495,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4663,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4775,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4831,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4999,13 +4999,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5055,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5223,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5279,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5391,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5447,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5503,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5615,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5671,13 +5671,13 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5727,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5895,13 +5895,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5951,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6231,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6343,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6399,13 +6399,13 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6455,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6567,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G130">
         <v>0.6666666666666666</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G131">
         <v>0.6666666666666666</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G132">
         <v>0.6666666666666666</v>
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G133">
         <v>0.6666666666666666</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G134">
         <v>0.6666666666666666</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G135">
         <v>0.6666666666666666</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G136">
         <v>0.6666666666666666</v>
